--- a/MedicalLink/Templates/BC_101_TKTienKhamYeuCauThu7ChuNhat.xlsx
+++ b/MedicalLink/Templates/BC_101_TKTienKhamYeuCauThu7ChuNhat.xlsx
@@ -131,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +181,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,41 +296,41 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,7 +622,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="M6" sqref="A6:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,91 +643,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="17"/>
+      <c r="K6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
@@ -804,10 +798,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="6">
         <f>SUM(C8:C8)</f>
         <v>0</v>
@@ -850,21 +844,27 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -875,12 +875,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
